--- a/data-raw/loesell.bean.uniformity.xlsx
+++ b/data-raw/loesell.bean.uniformity.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390F6EE5-0C40-4B91-A4CF-F58BC0190CA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D5DF8-C2D1-4AF9-B7B9-5F55D95EDE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{B16D6301-82E3-48D4-B24B-D83D7C6C3DA1}"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" xr2:uid="{B16D6301-82E3-48D4-B24B-D83D7C6C3DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,9 +61,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,9 +81,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -123,7 +121,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -229,7 +227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,7 +369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,5857 +384,5854 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1">
         <v>361</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1">
         <v>334</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
         <v>343</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>373</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>433</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>468</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>365</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1">
         <v>467</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1">
         <v>430</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1">
         <v>446</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1">
         <v>474</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1">
         <v>470</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1">
         <v>384</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1">
         <v>438</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1">
         <v>407</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1">
         <v>312</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1">
         <v>304</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1">
         <v>390</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1">
         <v>370</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1">
         <v>382</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1">
         <v>999</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>353</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>465</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>502</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>376</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>500</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>468</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>387</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>490</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>600</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>347</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>488</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>482</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>510</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>425</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>435</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>435</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>438</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>425</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>602</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>557</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>330</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>340</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>416</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>438</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>450</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>527</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>333</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>485</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>530</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>450</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>538</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>605</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>487</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>440</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>410</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>440</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>386</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>433</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>516</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>430</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>381</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>398</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>540</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>430</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>520</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>417</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>467</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>481</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>533</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>511</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>470</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>590</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>555</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>418</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>614</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>570</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>270</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4">
         <v>348</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4">
         <v>470</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>467</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>418</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>225</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>538</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>430</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>450</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>480</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>490</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>530</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>465</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>505</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>473</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>602</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>545</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>485</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>520</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>415</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>416</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>440</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>360</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>515</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>412</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>405</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>455</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>443</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>498</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>438</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>381</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>480</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>462</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>404</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>520</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>550</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>626</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>433</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>516</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>320</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>413</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6">
         <v>381</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6">
         <v>425</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
         <v>315</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6">
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>370</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>367</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>476</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>470</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>470</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>520</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>440</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>456</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>440</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>545</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>585</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>562</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>670</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>478</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>516</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>495</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>417</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7">
         <v>460</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7">
         <v>435</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>460</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7">
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>305</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>351</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>605</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>435</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>465</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>556</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>465</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>440</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>557</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>457</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>504</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>586</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>491</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>460</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>551</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>395</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <v>295</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8">
         <v>528</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8">
         <v>457</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8">
         <v>420</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8">
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>373</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>425</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>518</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>484</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>535</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>488</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>440</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>506</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>590</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>415</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>438</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>510</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>542</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>425</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>431</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>465</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>410</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9">
         <v>475</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9">
         <v>435</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
         <v>560</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9">
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>334</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>387</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>613</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>490</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>575</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>532</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>472</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>530</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>490</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>482</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>432</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>444</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>490</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>424</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>528</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <v>450</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <v>425</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10">
         <v>402</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10">
         <v>482</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
         <v>446</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10">
         <v>488</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>385</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>400</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>619</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>564</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>550</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>480</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>480</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>481</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>519</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>376</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>480</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>498</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>460</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>405</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>525</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11">
         <v>453</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
         <v>455</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11">
         <v>475</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11">
         <v>461</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11">
         <v>557</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11">
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>390</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>415</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>590</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>567</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>617</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>612</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>430</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>465</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>415</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>432</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>535</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>522</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>432</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>421</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>535</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12">
         <v>437</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12">
         <v>486</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12">
         <v>448</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12">
         <v>483</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12">
         <v>509</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12">
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>381</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>378</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>565</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>488</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>588</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>457</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>492</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>486</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>450</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>364</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>554</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>426</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>410</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>420</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>485</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13">
         <v>468</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <v>419</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13">
         <v>423</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13">
         <v>575</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
         <v>570</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13">
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>456</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>482</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>546</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>482</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>535</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>500</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>450</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>471</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>485</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>477</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>523</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>494</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>512</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>431</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>600</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <v>535</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <v>462</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14">
         <v>536</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14">
         <v>552</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14">
         <v>560</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14">
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>420</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>495</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>475</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>448</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>593</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>406</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>516</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>445</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>470</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>370</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>408</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>554</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>445</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>440</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>440</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15">
         <v>364</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>488</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15">
         <v>530</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15">
         <v>445</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15">
         <v>565</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15">
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>390</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>473</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>445</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>521</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>479</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>470</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>458</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>515</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>380</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>443</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>565</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>360</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>378</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>460</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>575</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16">
         <v>560</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16">
         <v>323</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16">
         <v>490</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16">
         <v>470</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16">
         <v>470</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16">
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>402</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>495</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>570</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>455</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>498</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>520</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>518</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>570</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>540</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>432</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>519</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>494</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>414</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>441</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>450</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <v>415</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17">
         <v>470</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17">
         <v>498</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17">
         <v>495</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17">
         <v>630</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17">
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>388</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>507</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>431</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>562</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>476</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>432</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>480</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>359</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>515</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>334</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>424</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>524</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>449</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>426</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>548</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18">
         <v>456</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18">
         <v>496</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18">
         <v>437</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18">
         <v>490</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18">
         <v>480</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18">
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>362</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>523</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>448</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>455</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>478</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>500</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>474</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>425</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>478</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>464</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>474</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>488</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>381</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>400</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>562</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19">
         <v>495</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19">
         <v>307</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19">
         <v>400</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19">
         <v>410</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19">
         <v>435</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19">
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>360</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>470</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>512</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>457</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>466</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>598</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>443</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>470</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>385</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>464</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>420</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>533</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>480</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>515</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>476</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20">
         <v>558</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20">
         <v>456</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20">
         <v>442</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20">
         <v>535</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20">
         <v>640</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20">
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>405</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>598</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>441</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>425</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>495</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>437</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>579</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>474</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>432</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>389</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>410</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>431</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>375</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>470</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>545</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21">
         <v>360</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21">
         <v>555</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21">
         <v>518</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21">
         <v>505</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21">
         <v>525</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21">
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>339</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>483</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>452</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>450</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>465</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>420</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>500</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>505</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>512</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>490</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>540</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>400</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>390</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>360</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>475</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22">
         <v>468</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22">
         <v>450</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22">
         <v>480</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22">
         <v>418</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22">
         <v>440</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>398</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>470</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>406</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>452</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>468</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>583</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>507</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>572</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>420</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>526</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>460</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>458</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>473</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23">
         <v>385</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23">
         <v>618</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23">
         <v>474</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23">
         <v>507</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23">
         <v>472</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23">
         <v>525</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23">
         <v>530</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23">
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>287</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>443</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>451</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>444</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>389</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>612</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>508</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>424</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>573</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>515</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>505</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24">
         <v>394</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>338</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
         <v>438</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24">
         <v>577</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24">
         <v>485</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24">
         <v>512</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24">
         <v>550</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24">
         <v>517</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24">
         <v>463</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>517</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>445</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>458</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>450</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>530</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>561</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>494</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>585</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>492</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>504</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>486</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>410</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>463</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <v>448</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25">
         <v>656</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25">
         <v>446</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25">
         <v>620</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25">
         <v>560</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25">
         <v>405</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25">
         <v>385</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>467</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>472</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>440</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>510</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>540</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>525</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>484</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>555</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>545</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>475</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <v>505</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <v>400</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <v>374</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <v>354</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26">
         <v>634</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
         <v>488</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26">
         <v>490</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26">
         <v>450</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26">
         <v>557</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26">
         <v>452</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26">
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>386</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>492</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>449</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>506</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>495</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>512</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>495</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>474</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>645</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>399</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27">
         <v>457</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>399</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
         <v>462</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27">
         <v>480</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27">
         <v>425</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27">
         <v>591</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27">
         <v>390</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27">
         <v>490</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27">
         <v>454</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27">
         <v>512</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>475</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>445</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>410</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>560</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>450</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>565</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>490</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>556</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>509</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>453</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>513</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>445</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
         <v>485</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <v>520</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28">
         <v>521</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28">
         <v>605</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28">
         <v>485</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28">
         <v>545</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28">
         <v>512</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28">
         <v>415</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28">
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>450</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>455</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>460</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>519</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>537</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>504</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>425</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>540</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>505</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>534</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>483</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>430</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>505</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <v>474</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29">
         <v>535</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
         <v>612</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29">
         <v>304</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29">
         <v>473</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29">
         <v>376</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29">
         <v>447</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>404</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>412</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>412</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>393</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>414</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>540</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>452</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>481</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>460</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>470</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>430</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>460</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>479</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <v>473</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30">
         <v>621</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <v>530</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30">
         <v>498</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30">
         <v>506</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30">
         <v>400</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30">
         <v>410</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30">
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>475</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>435</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>458</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>586</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>525</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>520</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>453</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>500</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>482</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>685</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>430</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>485</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
         <v>525</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <v>450</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31">
         <v>500</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31">
         <v>550</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31">
         <v>485</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31">
         <v>515</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31">
         <v>438</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31">
         <v>497</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31">
         <v>462</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>392</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>431</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>410</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>572</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>568</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>583</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>530</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>520</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>470</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>625</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>606</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>485</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
         <v>505</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <v>422</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32">
         <v>465</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32">
         <v>565</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32">
         <v>497</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32">
         <v>439</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32">
         <v>445</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32">
         <v>443</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32">
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>394</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>455</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>412</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>256</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>440</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>535</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>505</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>458</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>570</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>603</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33">
         <v>438</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33">
         <v>465</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
         <v>435</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <v>417</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33">
         <v>512</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33">
         <v>544</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33">
         <v>476</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33">
         <v>480</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33">
         <v>454</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33">
         <v>377</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33">
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>396</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>440</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>385</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>508</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>660</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>515</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>415</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>521</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>475</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>547</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34">
         <v>555</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34">
         <v>456</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34">
         <v>453</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34">
         <v>380</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34">
         <v>640</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34">
         <v>470</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34">
         <v>435</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34">
         <v>494</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34">
         <v>350</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34">
         <v>365</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34">
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>390</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>425</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>355</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>420</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>610</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>405</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>558</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>465</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>560</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>556</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35">
         <v>510</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35">
         <v>540</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
         <v>419</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <v>455</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35">
         <v>538</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>520</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35">
         <v>570</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35">
         <v>457</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35">
         <v>470</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T35">
         <v>360</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U35">
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>385</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>445</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>340</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>455</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>560</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>510</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>516</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>484</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>505</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>451</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36">
         <v>596</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <v>475</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36">
         <v>438</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36">
         <v>393</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36">
         <v>430</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36">
         <v>430</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36">
         <v>465</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36">
         <v>430</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36">
         <v>375</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T36">
         <v>407</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U36">
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>352</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>360</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>395</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>519</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>548</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>557</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>587</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>600</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>485</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>486</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37">
         <v>505</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37">
         <v>532</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
         <v>365</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <v>455</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37">
         <v>654</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
         <v>488</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37">
         <v>488</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37">
         <v>495</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37">
         <v>494</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37">
         <v>396</v>
       </c>
-      <c r="U37" s="1">
+      <c r="U37">
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>388</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>425</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>335</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>414</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>645</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>625</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>518</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>620</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>605</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>475</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38">
         <v>507</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38">
         <v>564</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
         <v>638</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38">
         <v>495</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38">
         <v>545</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38">
         <v>590</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38">
         <v>544</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38">
         <v>521</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38">
         <v>562</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38">
         <v>384</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U38">
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>368</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>440</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>410</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>448</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>580</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>600</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>500</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>568</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>390</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>480</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39">
         <v>440</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39">
         <v>608</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39">
         <v>402</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39">
         <v>415</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39">
         <v>517</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39">
         <v>481</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39">
         <v>437</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39">
         <v>563</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39">
         <v>525</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39">
         <v>400</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39">
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>387</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>485</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>420</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>558</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>575</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>460</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>478</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>492</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>478</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
         <v>555</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40">
         <v>445</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40">
         <v>580</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40">
         <v>458</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
         <v>405</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40">
         <v>575</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40">
         <v>555</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40">
         <v>690</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40">
         <v>597</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40">
         <v>550</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40">
         <v>495</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U40">
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>336</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>446</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>380</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>488</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>545</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>540</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>645</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>414</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>570</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>472</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41">
         <v>440</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41">
         <v>560</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41">
         <v>557</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41">
         <v>476</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41">
         <v>596</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41">
         <v>590</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41">
         <v>662</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41">
         <v>557</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41">
         <v>562</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41">
         <v>456</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41">
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>324</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>465</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>421</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>390</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>596</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>630</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>507</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>419</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>390</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>535</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42">
         <v>486</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42">
         <v>457</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
         <v>352</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42">
         <v>376</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42">
         <v>572</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42">
         <v>600</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42">
         <v>555</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42">
         <v>468</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42">
         <v>575</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42">
         <v>420</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U42">
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>423</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>392</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>408</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>482</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>490</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>620</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>492</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>450</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>555</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>476</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43">
         <v>468</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
         <v>550</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
         <v>385</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
         <v>334</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43">
         <v>426</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43">
         <v>557</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43">
         <v>615</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43">
         <v>556</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43">
         <v>507</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T43">
         <v>405</v>
       </c>
-      <c r="U43" s="1">
+      <c r="U43">
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>370</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>490</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>447</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>460</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>645</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>577</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>626</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>445</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>682</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>470</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44">
         <v>526</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44">
         <v>584</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44">
         <v>377</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44">
         <v>432</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44">
         <v>605</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44">
         <v>532</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44">
         <v>466</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44">
         <v>455</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44">
         <v>385</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44">
         <v>364</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U44">
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>999</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>413</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>418</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>535</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>609</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>492</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>530</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>362</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>586</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>479</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45">
         <v>530</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45">
         <v>466</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
         <v>395</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45">
         <v>640</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45">
         <v>615</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45">
         <v>507</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45">
         <v>458</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45">
         <v>505</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45">
         <v>580</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45">
         <v>999</v>
       </c>
-      <c r="U45" s="1">
+      <c r="U45">
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>350</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>608</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>390</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>355</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>410</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>565</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>462</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>305</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>605</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>550</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46">
         <v>534</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46">
         <v>385</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
         <v>386</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46">
         <v>472</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46">
         <v>445</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46">
         <v>490</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46">
         <v>372</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46">
         <v>402</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46">
         <v>505</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46">
         <v>557</v>
       </c>
-      <c r="U46" s="1">
+      <c r="U46">
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>348</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>452</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>405</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>587</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>565</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>475</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>546</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>390</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>555</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>487</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47">
         <v>330</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
         <v>345</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
         <v>373</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47">
         <v>430</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47">
         <v>545</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47">
         <v>505</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47">
         <v>400</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47">
         <v>470</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47">
         <v>447</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47">
         <v>385</v>
       </c>
-      <c r="U47" s="1">
+      <c r="U47">
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>330</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>404</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>325</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>468</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>507</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>660</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>463</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>360</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>440</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>392</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48">
         <v>417</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
         <v>465</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48">
         <v>383</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48">
         <v>429</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48">
         <v>502</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48">
         <v>437</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48">
         <v>342</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48">
         <v>420</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48">
         <v>458</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48">
         <v>302</v>
       </c>
-      <c r="U48" s="1">
+      <c r="U48">
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>417</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>386</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>402</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>421</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>614</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>566</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>548</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>350</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>485</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>556</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49">
         <v>450</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49">
         <v>380</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49">
         <v>460</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49">
         <v>400</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49">
         <v>530</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49">
         <v>560</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49">
         <v>425</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R49">
         <v>555</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S49">
         <v>440</v>
       </c>
-      <c r="T49" s="1">
+      <c r="T49">
         <v>371</v>
       </c>
-      <c r="U49" s="1">
+      <c r="U49">
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>510</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>405</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>360</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>550</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>570</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>703</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>375</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>345</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>485</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>580</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50">
         <v>468</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50">
         <v>446</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50">
         <v>402</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50">
         <v>412</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50">
         <v>530</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50">
         <v>515</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50">
         <v>462</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R50">
         <v>425</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S50">
         <v>360</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T50">
         <v>357</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U50">
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>405</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>345</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>370</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>495</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>541</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>567</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>470</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>320</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>382</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51">
         <v>513</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51">
         <v>474</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
         <v>503</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
         <v>483</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51">
         <v>410</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51">
         <v>563</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51">
         <v>340</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51">
         <v>426</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51">
         <v>446</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S51">
         <v>420</v>
       </c>
-      <c r="T51" s="1">
+      <c r="T51">
         <v>320</v>
       </c>
-      <c r="U51" s="1">
+      <c r="U51">
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>265</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>411</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>414</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>392</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>548</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>505</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>450</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>420</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>424</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52">
         <v>450</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52">
         <v>415</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52">
         <v>498</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52">
         <v>385</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52">
         <v>466</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52">
         <v>532</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52">
         <v>410</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52">
         <v>324</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R52">
         <v>437</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S52">
         <v>370</v>
       </c>
-      <c r="T52" s="1">
+      <c r="T52">
         <v>350</v>
       </c>
-      <c r="U52" s="1">
+      <c r="U52">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>461</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>394</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>355</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>510</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>455</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>545</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>410</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>437</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>368</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53">
         <v>445</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53">
         <v>500</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53">
         <v>427</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
         <v>435</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53">
         <v>351</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53">
         <v>512</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53">
         <v>466</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53">
         <v>348</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53">
         <v>393</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S53">
         <v>356</v>
       </c>
-      <c r="T53" s="1">
+      <c r="T53">
         <v>425</v>
       </c>
-      <c r="U53" s="1">
+      <c r="U53">
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>340</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>392</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>315</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>446</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>520</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>391</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>531</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>315</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>440</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54">
         <v>392</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54">
         <v>516</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
         <v>360</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54">
         <v>318</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54">
         <v>290</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54">
         <v>448</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54">
         <v>402</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54">
         <v>401</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R54">
         <v>385</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S54">
         <v>420</v>
       </c>
-      <c r="T54" s="1">
+      <c r="T54">
         <v>354</v>
       </c>
-      <c r="U54" s="1">
+      <c r="U54">
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>348</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>445</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>370</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>343</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>580</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>470</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>451</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>343</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>400</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <v>395</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55">
         <v>395</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <v>435</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
         <v>370</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55">
         <v>318</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55">
         <v>444</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55">
         <v>412</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55">
         <v>305</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R55">
         <v>390</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S55">
         <v>439</v>
       </c>
-      <c r="T55" s="1">
+      <c r="T55">
         <v>366</v>
       </c>
-      <c r="U55" s="1">
+      <c r="U55">
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>364</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>420</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>318</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>422</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>520</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>453</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>487</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>390</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>534</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <v>410</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56">
         <v>490</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <v>400</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
         <v>419</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56">
         <v>217</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56">
         <v>434</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56">
         <v>375</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56">
         <v>286</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56">
         <v>378</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56">
         <v>395</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T56">
         <v>370</v>
       </c>
-      <c r="U56" s="1">
+      <c r="U56">
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>535</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>335</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>314</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>332</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>578</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>437</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>468</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>370</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>435</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57">
         <v>388</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57">
         <v>434</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
         <v>450</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
         <v>373</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57">
         <v>345</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57">
         <v>415</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57">
         <v>419</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57">
         <v>270</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57">
         <v>303</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57">
         <v>350</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T57">
         <v>365</v>
       </c>
-      <c r="U57" s="1">
+      <c r="U57">
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>353</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>392</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>350</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>432</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>500</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>461</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>425</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>425</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>475</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58">
         <v>353</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58">
         <v>365</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58">
         <v>352</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58">
         <v>448</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58">
         <v>366</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58">
         <v>430</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58">
         <v>415</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58">
         <v>387</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58">
         <v>375</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S58">
         <v>393</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T58">
         <v>500</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U58">
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>375</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>367</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>350</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>405</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>484</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>418</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>384</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>400</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>435</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59">
         <v>384</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59">
         <v>377</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59">
         <v>354</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59">
         <v>265</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59">
         <v>355</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59">
         <v>541</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59">
         <v>450</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59">
         <v>250</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R59">
         <v>310</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S59">
         <v>377</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T59">
         <v>431</v>
       </c>
-      <c r="U59" s="1">
+      <c r="U59">
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>295</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>296</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>377</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>300</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>335</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>430</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>375</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>392</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>473</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>389</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60">
         <v>344</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60">
         <v>440</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60">
         <v>340</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60">
         <v>386</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60">
         <v>455</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60">
         <v>350</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q60">
         <v>260</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R60">
         <v>373</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S60">
         <v>393</v>
       </c>
-      <c r="T60" s="1">
+      <c r="T60">
         <v>480</v>
       </c>
-      <c r="U60" s="1">
+      <c r="U60">
         <v>440</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>302</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>330</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>285</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>267</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>434</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>437</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>344</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>365</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>373</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61">
         <v>373</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>306</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61">
         <v>332</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61">
         <v>367</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61">
         <v>290</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61">
         <v>420</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61">
         <v>335</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61">
         <v>240</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61">
         <v>312</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S61">
         <v>420</v>
       </c>
-      <c r="T61" s="1">
+      <c r="T61">
         <v>400</v>
       </c>
-      <c r="U61" s="1">
+      <c r="U61">
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>252</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>330</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>404</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>570</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>400</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>410</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>345</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>375</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>377</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62">
         <v>411</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62">
         <v>395</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
         <v>422</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
         <v>325</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62">
         <v>407</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62">
         <v>508</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62">
         <v>430</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62">
         <v>345</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62">
         <v>383</v>
       </c>
-      <c r="S62" s="1">
+      <c r="S62">
         <v>613</v>
       </c>
-      <c r="T62" s="1">
+      <c r="T62">
         <v>487</v>
       </c>
-      <c r="U62" s="1">
+      <c r="U62">
         <v>420</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>372</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>390</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>394</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>555</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>565</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>400</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>405</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>458</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>368</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63">
         <v>338</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63">
         <v>466</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
         <v>442</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
         <v>350</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63">
         <v>403</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63">
         <v>440</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63">
         <v>445</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63">
         <v>357</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R63">
         <v>354</v>
       </c>
-      <c r="S63" s="1">
+      <c r="S63">
         <v>540</v>
       </c>
-      <c r="T63" s="1">
+      <c r="T63">
         <v>483</v>
       </c>
-      <c r="U63" s="1">
+      <c r="U63">
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>310</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>450</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>380</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>448</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>340</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>455</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>462</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <v>335</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>466</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64">
         <v>360</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64">
         <v>334</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64">
         <v>314</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
         <v>405</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64">
         <v>481</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64">
         <v>452</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64">
         <v>358</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64">
         <v>374</v>
       </c>
-      <c r="R64" s="1">
+      <c r="R64">
         <v>358</v>
       </c>
-      <c r="S64" s="1">
+      <c r="S64">
         <v>450</v>
       </c>
-      <c r="T64" s="1">
+      <c r="T64">
         <v>362</v>
       </c>
-      <c r="U64" s="1">
+      <c r="U64">
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>341</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>320</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>388</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>490</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>448</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>440</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>399</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>435</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>455</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65">
         <v>364</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65">
         <v>332</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65">
         <v>420</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
         <v>365</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65">
         <v>392</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65">
         <v>470</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65">
         <v>426</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65">
         <v>338</v>
       </c>
-      <c r="R65" s="1">
+      <c r="R65">
         <v>434</v>
       </c>
-      <c r="S65" s="1">
+      <c r="S65">
         <v>426</v>
       </c>
-      <c r="T65" s="1">
+      <c r="T65">
         <v>555</v>
       </c>
-      <c r="U65" s="1">
+      <c r="U65">
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>287</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>268</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>425</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>485</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>480</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>444</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>370</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>466</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>590</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>435</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66">
         <v>292</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
         <v>332</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
         <v>334</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66">
         <v>384</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66">
         <v>405</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66">
         <v>428</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66">
         <v>380</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R66">
         <v>436</v>
       </c>
-      <c r="S66" s="1">
+      <c r="S66">
         <v>442</v>
       </c>
-      <c r="T66" s="1">
+      <c r="T66">
         <v>355</v>
       </c>
-      <c r="U66" s="1">
+      <c r="U66">
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>368</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>332</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>382</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>490</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>456</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>545</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>444</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>567</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>390</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>474</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67">
         <v>358</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <v>400</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
         <v>388</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67">
         <v>344</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67">
         <v>446</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67">
         <v>427</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q67">
         <v>274</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R67">
         <v>325</v>
       </c>
-      <c r="S67" s="1">
+      <c r="S67">
         <v>312</v>
       </c>
-      <c r="T67" s="1">
+      <c r="T67">
         <v>386</v>
       </c>
-      <c r="U67" s="1">
+      <c r="U67">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>310</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>337</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>406</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>524</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>475</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>510</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>560</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>530</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>540</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>522</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68">
         <v>335</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68">
         <v>425</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
         <v>517</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68">
         <v>463</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68">
         <v>387</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68">
         <v>415</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68">
         <v>410</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68">
         <v>335</v>
       </c>
-      <c r="S68" s="1">
+      <c r="S68">
         <v>340</v>
       </c>
-      <c r="T68" s="1">
+      <c r="T68">
         <v>310</v>
       </c>
-      <c r="U68" s="1">
+      <c r="U68">
         <v>475</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>300</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>325</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>358</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>475</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>515</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>432</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>382</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>490</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>458</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69">
         <v>440</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69">
         <v>356</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69">
         <v>440</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69">
         <v>436</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69">
         <v>430</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69">
         <v>455</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69">
         <v>392</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69">
         <v>352</v>
       </c>
-      <c r="R69" s="1">
+      <c r="R69">
         <v>226</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69">
         <v>310</v>
       </c>
-      <c r="T69" s="1">
+      <c r="T69">
         <v>352</v>
       </c>
-      <c r="U69" s="1">
+      <c r="U69">
         <v>453</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>352</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>354</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>325</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>540</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>405</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>478</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>429</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <v>420</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>465</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70">
         <v>345</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70">
         <v>425</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70">
         <v>415</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70">
         <v>555</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70">
         <v>503</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70">
         <v>415</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70">
         <v>440</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="Q70">
         <v>410</v>
       </c>
-      <c r="R70" s="1">
+      <c r="R70">
         <v>373</v>
       </c>
-      <c r="S70" s="1">
+      <c r="S70">
         <v>290</v>
       </c>
-      <c r="T70" s="1">
+      <c r="T70">
         <v>400</v>
       </c>
-      <c r="U70" s="1">
+      <c r="U70">
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>375</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>354</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>388</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>482</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>555</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>426</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>468</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <v>506</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>465</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71">
         <v>418</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71">
         <v>345</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71">
         <v>571</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71">
         <v>437</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71">
         <v>420</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71">
         <v>485</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71">
         <v>430</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q71">
         <v>376</v>
       </c>
-      <c r="R71" s="1">
+      <c r="R71">
         <v>228</v>
       </c>
-      <c r="S71" s="1">
+      <c r="S71">
         <v>260</v>
       </c>
-      <c r="T71" s="1">
+      <c r="T71">
         <v>398</v>
       </c>
-      <c r="U71" s="1">
+      <c r="U71">
         <v>492</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>306</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>320</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>432</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>417</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>475</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>512</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>475</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
         <v>440</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>436</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72">
         <v>500</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72">
         <v>456</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72">
         <v>438</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72">
         <v>516</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72">
         <v>445</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72">
         <v>564</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72">
         <v>534</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72">
         <v>348</v>
       </c>
-      <c r="R72" s="1">
+      <c r="R72">
         <v>337</v>
       </c>
-      <c r="S72" s="1">
+      <c r="S72">
         <v>329</v>
       </c>
-      <c r="T72" s="1">
+      <c r="T72">
         <v>365</v>
       </c>
-      <c r="U72" s="1">
+      <c r="U72">
         <v>555</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>375</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>387</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>242</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>390</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>458</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>431</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>363</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
         <v>455</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>438</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73">
         <v>520</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73">
         <v>509</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73">
         <v>551</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73">
         <v>494</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73">
         <v>485</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73">
         <v>660</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73">
         <v>407</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73">
         <v>404</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R73">
         <v>329</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73">
         <v>331</v>
       </c>
-      <c r="T73" s="1">
+      <c r="T73">
         <v>487</v>
       </c>
-      <c r="U73" s="1">
+      <c r="U73">
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>355</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>365</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>444</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>348</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>440</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>483</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>419</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>377</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>460</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>530</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74">
         <v>490</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74">
         <v>460</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74">
         <v>525</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74">
         <v>552</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74">
         <v>540</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74">
         <v>473</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="Q74">
         <v>455</v>
       </c>
-      <c r="R74" s="1">
+      <c r="R74">
         <v>367</v>
       </c>
-      <c r="S74" s="1">
+      <c r="S74">
         <v>294</v>
       </c>
-      <c r="T74" s="1">
+      <c r="T74">
         <v>409</v>
       </c>
-      <c r="U74" s="1">
+      <c r="U74">
         <v>523</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>345</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>425</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>395</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>370</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>436</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>556</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>515</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <v>492</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>525</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75">
         <v>511</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75">
         <v>571</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75">
         <v>523</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75">
         <v>454</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75">
         <v>467</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75">
         <v>575</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75">
         <v>435</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75">
         <v>441</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75">
         <v>319</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75">
         <v>340</v>
       </c>
-      <c r="T75" s="1">
+      <c r="T75">
         <v>345</v>
       </c>
-      <c r="U75" s="1">
+      <c r="U75">
         <v>531</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>370</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>420</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>415</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>371</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>377</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>425</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>481</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <v>415</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>473</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76">
         <v>420</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76">
         <v>595</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76">
         <v>511</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76">
         <v>510</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76">
         <v>509</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76">
         <v>416</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76">
         <v>492</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76">
         <v>468</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R76">
         <v>370</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76">
         <v>339</v>
       </c>
-      <c r="T76" s="1">
+      <c r="T76">
         <v>385</v>
       </c>
-      <c r="U76" s="1">
+      <c r="U76">
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>414</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>366</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>325</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>400</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>401</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>367</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>416</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <v>370</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>550</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77">
         <v>425</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77">
         <v>485</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77">
         <v>413</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77">
         <v>515</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77">
         <v>454</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77">
         <v>570</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77">
         <v>470</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77">
         <v>331</v>
       </c>
-      <c r="R77" s="1">
+      <c r="R77">
         <v>451</v>
       </c>
-      <c r="S77" s="1">
+      <c r="S77">
         <v>374</v>
       </c>
-      <c r="T77" s="1">
+      <c r="T77">
         <v>258</v>
       </c>
-      <c r="U77" s="1">
+      <c r="U77">
         <v>528</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>316</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>287</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>311</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>312</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>305</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>364</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>431</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <v>407</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>483</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78">
         <v>509</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78">
         <v>404</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78">
         <v>408</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78">
         <v>550</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78">
         <v>444</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78">
         <v>525</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78">
         <v>420</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q78">
         <v>400</v>
       </c>
-      <c r="R78" s="1">
+      <c r="R78">
         <v>372</v>
       </c>
-      <c r="S78" s="1">
+      <c r="S78">
         <v>275</v>
       </c>
-      <c r="T78" s="1">
+      <c r="T78">
         <v>380</v>
       </c>
-      <c r="U78" s="1">
+      <c r="U78">
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>289</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>286</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>376</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>345</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79">
         <v>400</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79">
         <v>452</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
         <v>392</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79">
         <v>366</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79">
         <v>540</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79">
         <v>380</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79">
         <v>533</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L79">
         <v>355</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M79">
         <v>407</v>
       </c>
-      <c r="N79" s="1">
+      <c r="N79">
         <v>452</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79">
         <v>458</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79">
         <v>460</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="Q79">
         <v>485</v>
       </c>
-      <c r="R79" s="1">
+      <c r="R79">
         <v>335</v>
       </c>
-      <c r="S79" s="1">
+      <c r="S79">
         <v>270</v>
       </c>
-      <c r="T79" s="1">
+      <c r="T79">
         <v>276</v>
       </c>
-      <c r="U79" s="1">
+      <c r="U79">
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>335</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>336</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>343</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>325</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80">
         <v>375</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80">
         <v>442</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80">
         <v>351</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80">
         <v>338</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80">
         <v>475</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80">
         <v>533</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K80">
         <v>460</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L80">
         <v>425</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80">
         <v>435</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N80">
         <v>470</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80">
         <v>512</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80">
         <v>490</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="Q80">
         <v>565</v>
       </c>
-      <c r="R80" s="1">
+      <c r="R80">
         <v>316</v>
       </c>
-      <c r="S80" s="1">
+      <c r="S80">
         <v>528</v>
       </c>
-      <c r="T80" s="1">
+      <c r="T80">
         <v>456</v>
       </c>
-      <c r="U80" s="1">
+      <c r="U80">
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>395</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>335</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>336</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>424</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81">
         <v>365</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81">
         <v>532</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>420</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81">
         <v>432</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81">
         <v>520</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81">
         <v>485</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K81">
         <v>467</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L81">
         <v>388</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M81">
         <v>400</v>
       </c>
-      <c r="N81" s="1">
+      <c r="N81">
         <v>430</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81">
         <v>610</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81">
         <v>440</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="Q81">
         <v>405</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R81">
         <v>408</v>
       </c>
-      <c r="S81" s="1">
+      <c r="S81">
         <v>398</v>
       </c>
-      <c r="T81" s="1">
+      <c r="T81">
         <v>355</v>
       </c>
-      <c r="U81" s="1">
+      <c r="U81">
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>323</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>394</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>355</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
         <v>420</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82">
         <v>405</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82">
         <v>450</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82">
         <v>458</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82">
         <v>443</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82">
         <v>625</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82">
         <v>570</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K82">
         <v>548</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L82">
         <v>475</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M82">
         <v>450</v>
       </c>
-      <c r="N82" s="1">
+      <c r="N82">
         <v>375</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82">
         <v>515</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P82">
         <v>490</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="Q82">
         <v>490</v>
       </c>
-      <c r="R82" s="1">
+      <c r="R82">
         <v>414</v>
       </c>
-      <c r="S82" s="1">
+      <c r="S82">
         <v>475</v>
       </c>
-      <c r="T82" s="1">
+      <c r="T82">
         <v>350</v>
       </c>
-      <c r="U82" s="1">
+      <c r="U82">
         <v>395</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>400</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>380</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>280</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>460</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83">
         <v>473</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83">
         <v>450</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83">
         <v>530</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83">
         <v>370</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83">
         <v>498</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83">
         <v>565</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K83">
         <v>435</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L83">
         <v>510</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M83">
         <v>405</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N83">
         <v>362</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83">
         <v>586</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83">
         <v>500</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q83">
         <v>395</v>
       </c>
-      <c r="R83" s="1">
+      <c r="R83">
         <v>331</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S83">
         <v>371</v>
       </c>
-      <c r="T83" s="1">
+      <c r="T83">
         <v>380</v>
       </c>
-      <c r="U83" s="1">
+      <c r="U83">
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>370</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>410</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>260</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>402</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84">
         <v>470</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84">
         <v>525</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84">
         <v>456</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84">
         <v>292</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84">
         <v>565</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84">
         <v>524</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K84">
         <v>451</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L84">
         <v>435</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M84">
         <v>339</v>
       </c>
-      <c r="N84" s="1">
+      <c r="N84">
         <v>386</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84">
         <v>610</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84">
         <v>548</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q84">
         <v>410</v>
       </c>
-      <c r="R84" s="1">
+      <c r="R84">
         <v>412</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S84">
         <v>483</v>
       </c>
-      <c r="T84" s="1">
+      <c r="T84">
         <v>405</v>
       </c>
-      <c r="U84" s="1">
+      <c r="U84">
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>354</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>390</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>246</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>415</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85">
         <v>534</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85">
         <v>473</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85">
         <v>568</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85">
         <v>475</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85">
         <v>473</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85">
         <v>440</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K85">
         <v>390</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L85">
         <v>440</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M85">
         <v>408</v>
       </c>
-      <c r="N85" s="1">
+      <c r="N85">
         <v>468</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85">
         <v>590</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85">
         <v>495</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q85">
         <v>365</v>
       </c>
-      <c r="R85" s="1">
+      <c r="R85">
         <v>329</v>
       </c>
-      <c r="S85" s="1">
+      <c r="S85">
         <v>452</v>
       </c>
-      <c r="T85" s="1">
+      <c r="T85">
         <v>404</v>
       </c>
-      <c r="U85" s="1">
+      <c r="U85">
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>365</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>406</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>380</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>344</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86">
         <v>435</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86">
         <v>505</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86">
         <v>449</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86">
         <v>510</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86">
         <v>525</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86">
         <v>438</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K86">
         <v>453</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L86">
         <v>432</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M86">
         <v>485</v>
       </c>
-      <c r="N86" s="1">
+      <c r="N86">
         <v>505</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86">
         <v>603</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86">
         <v>532</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="Q86">
         <v>450</v>
       </c>
-      <c r="R86" s="1">
+      <c r="R86">
         <v>400</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S86">
         <v>375</v>
       </c>
-      <c r="T86" s="1">
+      <c r="T86">
         <v>365</v>
       </c>
-      <c r="U86" s="1">
+      <c r="U86">
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>350</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>357</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>357</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>320</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87">
         <v>435</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87">
         <v>573</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87">
         <v>520</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87">
         <v>460</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87">
         <v>562</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87">
         <v>393</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K87">
         <v>414</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L87">
         <v>439</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87">
         <v>452</v>
       </c>
-      <c r="N87" s="1">
+      <c r="N87">
         <v>543</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87">
         <v>635</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87">
         <v>530</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q87">
         <v>402</v>
       </c>
-      <c r="R87" s="1">
+      <c r="R87">
         <v>376</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S87">
         <v>334</v>
       </c>
-      <c r="T87" s="1">
+      <c r="T87">
         <v>410</v>
       </c>
-      <c r="U87" s="1">
+      <c r="U87">
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>300</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>278</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>325</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88">
         <v>350</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88">
         <v>375</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88">
         <v>495</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88">
         <v>470</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H88">
         <v>545</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88">
         <v>543</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88">
         <v>509</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K88">
         <v>451</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L88">
         <v>524</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M88">
         <v>583</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N88">
         <v>462</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O88">
         <v>645</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P88">
         <v>520</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q88">
         <v>445</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R88">
         <v>427</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S88">
         <v>440</v>
       </c>
-      <c r="T88" s="1">
+      <c r="T88">
         <v>350</v>
       </c>
-      <c r="U88" s="1">
+      <c r="U88">
         <v>465</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>335</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>256</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>348</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
         <v>381</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89">
         <v>468</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89">
         <v>474</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89">
         <v>542</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89">
         <v>492</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89">
         <v>445</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89">
         <v>470</v>
       </c>
-      <c r="K89" s="1">
+      <c r="K89">
         <v>464</v>
       </c>
-      <c r="L89" s="1">
+      <c r="L89">
         <v>495</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M89">
         <v>498</v>
       </c>
-      <c r="N89" s="1">
+      <c r="N89">
         <v>562</v>
       </c>
-      <c r="O89" s="1">
+      <c r="O89">
         <v>627</v>
       </c>
-      <c r="P89" s="1">
+      <c r="P89">
         <v>452</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="Q89">
         <v>376</v>
       </c>
-      <c r="R89" s="1">
+      <c r="R89">
         <v>420</v>
       </c>
-      <c r="S89" s="1">
+      <c r="S89">
         <v>392</v>
       </c>
-      <c r="T89" s="1">
+      <c r="T89">
         <v>396</v>
       </c>
-      <c r="U89" s="1">
+      <c r="U89">
         <v>407</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>387</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>314</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>340</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90">
         <v>395</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90">
         <v>352</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90">
         <v>506</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90">
         <v>574</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90">
         <v>438</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90">
         <v>485</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90">
         <v>330</v>
       </c>
-      <c r="K90" s="1">
+      <c r="K90">
         <v>416</v>
       </c>
-      <c r="L90" s="1">
+      <c r="L90">
         <v>400</v>
       </c>
-      <c r="M90" s="1">
+      <c r="M90">
         <v>387</v>
       </c>
-      <c r="N90" s="1">
+      <c r="N90">
         <v>413</v>
       </c>
-      <c r="O90" s="1">
+      <c r="O90">
         <v>430</v>
       </c>
-      <c r="P90" s="1">
+      <c r="P90">
         <v>480</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="Q90">
         <v>540</v>
       </c>
-      <c r="R90" s="1">
+      <c r="R90">
         <v>548</v>
       </c>
-      <c r="S90" s="1">
+      <c r="S90">
         <v>535</v>
       </c>
-      <c r="T90" s="1">
+      <c r="T90">
         <v>427</v>
       </c>
-      <c r="U90" s="1">
+      <c r="U90">
         <v>999</v>
       </c>
     </row>
